--- a/ComplexIntelligenceSystem_python/Libraries/ParametersLibrary/parameters_test/parameters.xlsx
+++ b/ComplexIntelligenceSystem_python/Libraries/ParametersLibrary/parameters_test/parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/LocalFiles/ExplorationFile/ComplexIntelligenceSystem/ComplexIntelligenceSystem_python/Libraries/ParametersLibrary/parameters_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB22226-3B36-6B46-AA5E-433CC7F5DF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C308BE-FF11-E149-BF07-A3296FE2C2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="660" windowWidth="50880" windowHeight="27980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="4" r:id="rId1"/>
@@ -154,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正交组合组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,6 +207,10 @@
   </si>
   <si>
     <t>N_unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,12 +571,12 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B53" sqref="B53"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="7" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
@@ -598,7 +598,7 @@
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>19</v>
@@ -634,16 +634,16 @@
         <v>4</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>27</v>
@@ -684,7 +684,7 @@
         <v>25</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>5</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O2" s="1">
         <v>1</v>
@@ -716,7 +716,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1">
         <v>100</v>
@@ -740,7 +740,7 @@
         <v>25</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>5</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O3" s="1">
         <v>1</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O4" s="1">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1">
         <v>1000</v>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>13</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -872,7 +872,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1">
         <f>500-(5*2)</f>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>13</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -922,7 +922,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1">
         <v>1000</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O7" s="1">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>13</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -984,7 +984,7 @@
         <v>25</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>5</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O8" s="1">
         <v>1</v>
